--- a/models/model_data/log/model accs.xlsx
+++ b/models/model_data/log/model accs.xlsx
@@ -2,28 +2,51 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="1037" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="1037_province_data" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="1038" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="1038_province_data" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="5">
     <font>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <b val="1"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -38,12 +61,27 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -56,14 +94,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -435,67 +485,67 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>mIoU</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>OA</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Kappa</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>S-SMA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>S-PA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>S-UA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>S-F1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>T-SMA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="5" t="inlineStr">
         <is>
           <t>T-PA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="5" t="inlineStr">
         <is>
           <t>T-UA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="5" t="inlineStr">
         <is>
           <t>T-F1</t>
         </is>
@@ -581,37 +631,37 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>97.9±0.08</t>
+          <t>97.9±0.07</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>96.7±0.37</t>
+          <t>96.6±0.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>96.4±0.13</t>
+          <t>96.4±0.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>88.0±0.69</t>
+          <t>88.1±0.74</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>96.3±0.68</t>
+          <t>96.3±0.66</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>98.9±0.15</t>
+          <t>98.9±0.14</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>97.6±0.42</t>
+          <t>97.5±0.41</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -621,17 +671,17 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>94.4±0.49</t>
+          <t>94.4±0.55</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>92.6±0.43</t>
+          <t>92.6±0.38</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>93.5±0.36</t>
+          <t>93.5±0.38</t>
         </is>
       </c>
     </row>
@@ -643,62 +693,62 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>93.3±0.15</t>
+          <t>93.3±0.19</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>97.2±0.12</t>
+          <t>97.3±0.05</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>95.8±0.31</t>
+          <t>95.8±0.35</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>95.2±0.21</t>
+          <t>95.3±0.08</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>85.9±0.57</t>
+          <t>86.2±0.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>95.6±0.76</t>
+          <t>96.0±0.57</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>98.2±0.33</t>
+          <t>98.3±0.39</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>96.9±0.32</t>
+          <t>97.1±0.32</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>68.9±0.99</t>
+          <t>69.7±0.71</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>92.3±0.42</t>
+          <t>92.4±0.50</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>90.4±0.59</t>
+          <t>91.0±0.53</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>91.3±0.26</t>
+          <t>91.7±0.47</t>
         </is>
       </c>
     </row>
@@ -710,7 +760,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>93.5±0.16</t>
+          <t>93.6±0.10</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -720,7 +770,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>95.6±0.10</t>
+          <t>95.7±0.16</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -730,42 +780,42 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>85.7±0.63</t>
+          <t>85.9±0.61</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>95.6±0.52</t>
+          <t>95.8±0.50</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>98.6±0.16</t>
+          <t>98.7±0.18</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>97.1±0.33</t>
+          <t>97.2±0.31</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>68.9±0.99</t>
+          <t>69.2±0.58</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>92.5±0.60</t>
+          <t>92.6±0.36</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>90.2±0.59</t>
+          <t>90.7±0.28</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>91.4±0.57</t>
+          <t>91.6±0.28</t>
         </is>
       </c>
     </row>
@@ -844,7 +894,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>93.1±0.57</t>
+          <t>93.1±0.54</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -854,7 +904,7 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>95.8±0.48</t>
+          <t>95.8±0.39</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -864,42 +914,42 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>87.3±0.30</t>
+          <t>87.2±0.29</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>96.0±0.29</t>
+          <t>96.2±0.25</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>98.7±0.14</t>
+          <t>98.8±0.15</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>97.3±0.16</t>
+          <t>97.5±0.15</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>70.8±0.62</t>
+          <t>71.0±0.69</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>93.6±0.40</t>
+          <t>93.3±0.28</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>91.2±0.42</t>
+          <t>91.4±0.31</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>92.4±0.21</t>
+          <t>92.3±0.24</t>
         </is>
       </c>
     </row>
@@ -923,67 +973,67 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="5" t="inlineStr">
         <is>
           <t>model</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="5" t="inlineStr">
         <is>
           <t>province</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="5" t="inlineStr">
         <is>
           <t>OA</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="5" t="inlineStr">
         <is>
           <t>AA</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="5" t="inlineStr">
         <is>
           <t>Kappa</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="5" t="inlineStr">
         <is>
           <t>S-SMA</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="5" t="inlineStr">
         <is>
           <t>S-PA</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="5" t="inlineStr">
         <is>
           <t>S-UA</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="5" t="inlineStr">
         <is>
           <t>S-F1</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="5" t="inlineStr">
         <is>
           <t>T-SMA</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="5" t="inlineStr">
         <is>
           <t>T-PA</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="5" t="inlineStr">
         <is>
           <t>T-UA</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="5" t="inlineStr">
         <is>
           <t>T-F1</t>
         </is>
@@ -3340,6 +3390,2972 @@
         </is>
       </c>
       <c r="E37" t="inlineStr"/>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>mIoU</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>OA</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>Kappa</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>S-SMA</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>S-PA</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>S-UA</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>S-F1</t>
+        </is>
+      </c>
+      <c r="J1" s="5" t="inlineStr">
+        <is>
+          <t>T-SMA</t>
+        </is>
+      </c>
+      <c r="K1" s="5" t="inlineStr">
+        <is>
+          <t>T-PA</t>
+        </is>
+      </c>
+      <c r="L1" s="5" t="inlineStr">
+        <is>
+          <t>T-UA</t>
+        </is>
+      </c>
+      <c r="M1" s="5" t="inlineStr">
+        <is>
+          <t>T-F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>_TransEncoder</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>94.0±0.48</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>97.9±0.10</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>96.2±0.79</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.4±0.18</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>88.2±0.82</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>96.6±0.47</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>98.7±0.32</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>97.6±0.36</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>71.6±0.59</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>94.0±0.73</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>92.4±0.49</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>93.2±0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>_TransEncoder (opt only)</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>93.7±0.25</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>97.8±0.05</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>96.0±0.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.3±0.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>87.3±0.31</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>96.7±0.58</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>98.7±0.31</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>97.7±0.23</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>71.9±0.39</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>93.7±0.37</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>92.5±0.06</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>93.1±0.20</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>_Unet</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>91.6±1.14</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>97.0±0.22</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>95.2±0.67</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.9±0.37</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>83.4±1.72</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>95.3±0.33</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>98.2±0.31</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>96.7±0.28</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>67.3±1.32</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>90.9±0.90</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>89.1±0.92</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>90.0±0.87</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>_Unet (opt only)</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>92.0±0.49</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>97.0±0.09</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>94.7±0.51</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.9±0.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>84.1±0.91</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>95.7±0.27</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>98.6±0.20</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>97.1±0.23</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>68.0±1.21</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>90.8±0.36</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>89.0±0.81</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>89.9±0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>_FCN</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>92.0±0.63</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>97.5±0.07</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>95.1±0.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>95.7±0.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>85.7±1.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>95.7±0.60</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>98.7±0.19</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>97.2±0.40</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>69.6±0.50</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>92.8±0.54</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>90.3±0.39</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>91.5±0.37</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>_FCN (opt only)</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>93.0±0.32</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>97.6±0.05</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>95.9±0.34</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.9±0.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>85.6±1.33</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>95.9±0.62</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>98.7±0.08</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>97.3±0.31</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>69.4±0.61</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>93.3±0.48</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>90.4±0.38</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>91.8±0.42</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:M37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="5" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="B1" s="5" t="inlineStr">
+        <is>
+          <t>province</t>
+        </is>
+      </c>
+      <c r="C1" s="5" t="inlineStr">
+        <is>
+          <t>OA</t>
+        </is>
+      </c>
+      <c r="D1" s="5" t="inlineStr">
+        <is>
+          <t>AA</t>
+        </is>
+      </c>
+      <c r="E1" s="5" t="inlineStr">
+        <is>
+          <t>Kappa</t>
+        </is>
+      </c>
+      <c r="F1" s="5" t="inlineStr">
+        <is>
+          <t>S-SMA</t>
+        </is>
+      </c>
+      <c r="G1" s="5" t="inlineStr">
+        <is>
+          <t>S-PA</t>
+        </is>
+      </c>
+      <c r="H1" s="5" t="inlineStr">
+        <is>
+          <t>S-UA</t>
+        </is>
+      </c>
+      <c r="I1" s="5" t="inlineStr">
+        <is>
+          <t>S-F1</t>
+        </is>
+      </c>
+      <c r="J1" s="5" t="inlineStr">
+        <is>
+          <t>T-SMA</t>
+        </is>
+      </c>
+      <c r="K1" s="5" t="inlineStr">
+        <is>
+          <t>T-PA</t>
+        </is>
+      </c>
+      <c r="L1" s="5" t="inlineStr">
+        <is>
+          <t>T-UA</t>
+        </is>
+      </c>
+      <c r="M1" s="5" t="inlineStr">
+        <is>
+          <t>T-F1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>TransEncoder_SD</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>98.1±0.25</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>83.9±7.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.0±0.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>90.2±1.10</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>99.6±0.39</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>99.0±0.29</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>99.3±0.22</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>43.9±1.44</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>94.6±0.98</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>94.3±0.61</t>
+        </is>
+      </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>94.4±0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>TransEncoder_SD_opt_only</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>98.1±0.11</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>87.7±5.27</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>95.9±0.24</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>88.8±1.98</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>99.5±0.41</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>98.8±0.40</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>99.2±0.34</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>43.8±1.52</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>94.1±0.65</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>94.2±0.47</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>94.1±0.49</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>TransEncoder_JS</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>JS</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>99.3±0.05</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>97.5±0.57</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.9±0.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>95.8±0.59</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>99.8±0.08</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>99.9±0.04</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>99.9±0.06</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>89.5±0.59</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>97.9±0.46</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>96.7±0.49</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>97.3±0.39</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>TransEncoder_JS_opt_only</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>JS</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>99.3±0.04</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>97.2±0.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.9±0.06</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>95.4±0.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>99.9±0.08</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>99.9±0.08</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>99.9±0.07</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>89.7±0.37</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>97.5±0.15</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>97.0±0.29</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>97.2±0.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>TransEncoder_SH</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>SH</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>99.6±0.17</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>98.3±1.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.8±0.53</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>94.8±3.01</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>99.3±1.03</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>98.9±1.33</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>99.1±1.11</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>96.5±1.47</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>99.2±0.40</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>98.8±0.54</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>99.0±0.44</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>TransEncoder_SH_opt_only</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>SH</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>99.6±0.18</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>98.1±1.11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>98.6±0.58</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>93.2±3.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>98.6±2.39</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>98.9±1.16</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>98.7±1.71</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>96.5±1.83</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>99.5±0.26</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>98.5±1.19</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>99.0±0.71</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>TransEncoder_ZJ</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ZJ</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>97.7±0.22</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>98.0±0.47</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.8±0.40</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>89.9±0.83</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>67.2±0.88</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>95.9±0.43</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>91.2±0.98</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>93.5±0.53</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>TransEncoder_ZJ_opt_only</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ZJ</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>97.6±0.04</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>97.6±0.22</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.6±0.08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>88.9±1.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>99.9±0.11</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>99.7±0.53</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>99.8±0.32</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>67.2±0.67</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>94.3±0.78</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>90.3±1.27</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>92.2±0.97</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>TransEncoder_FJ</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>FJ</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>96.0±0.13</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>92.1±0.94</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.3±0.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>88.1±0.79</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>83.5±2.34</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>95.7±2.36</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>89.1±1.11</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>74.7±0.87</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>91.8±0.58</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>86.8±0.84</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>89.3±0.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>TransEncoder_FJ_opt_only</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>FJ</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>96.0±0.15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>93.2±1.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.4±0.30</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>88.4±0.30</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>84.2±2.21</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>94.4±3.51</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>88.9±0.84</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>75.0±1.36</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>92.0±0.71</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
+        <is>
+          <t>87.1±0.67</t>
+        </is>
+      </c>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>89.5±0.64</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>TransEncoder_GDGX</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>GDGX</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>TransEncoder_GDGX_opt_only</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>GDGX</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Unet_SD</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>97.7±0.33</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>80.1±8.19</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>95.2±0.72</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>88.7±2.22</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>99.2±0.29</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>99.1±0.70</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>99.2±0.34</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>43.2±1.66</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>93.5±1.32</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>94.1±0.96</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>93.8±1.07</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Unet_SD_opt_only</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>97.7±0.31</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>81.3±9.32</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>95.2±0.67</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>88.8±1.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>98.9±0.29</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>99.2±0.58</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>99.1±0.29</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>43.5±1.87</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>93.1±1.04</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>94.1±1.12</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>93.6±1.04</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Unet_JS</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>JS</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>99.1±0.16</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>96.7±0.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>98.4±0.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>94.2±0.97</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>100.0±0.08</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>100.0±0.04</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>100.0±0.06</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>88.2±1.54</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>96.6±0.90</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>96.0±1.44</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>96.3±1.09</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Unet_JS_opt_only</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>JS</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>99.1±0.12</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>95.8±0.38</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>98.5±0.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>94.5±0.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>100.0±0.08</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>100.0±0.04</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>100.0±0.06</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>88.8±1.45</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>96.9±0.69</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>96.5±0.96</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>96.7±0.80</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Unet_SH</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>SH</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>99.5±0.22</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>98.2±0.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>98.2±0.70</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>91.9±3.85</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>96.9±2.69</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>98.8±0.87</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>97.8±1.78</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>93.3±3.26</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>98.4±0.97</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>97.1±1.63</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>97.7±1.29</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Unet_SH_opt_only</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>SH</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>99.6±0.10</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>98.3±0.24</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>98.6±0.31</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>93.9±2.22</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>99.6±0.35</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>99.5±0.35</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>99.6±0.28</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>94.3±2.10</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>98.6±0.22</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>97.6±1.06</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>98.1±0.57</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Unet_ZJ</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>ZJ</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>96.9±0.31</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>96.2±1.60</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.3±0.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>88.4±3.42</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>99.9±0.11</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>99.7±0.53</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>99.8±0.32</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>63.8±3.48</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>91.4±1.93</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>87.8±1.78</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>89.5±1.85</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Unet_ZJ_opt_only</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>ZJ</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>97.0±0.34</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>96.8±0.86</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.5±0.63</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>88.1±1.15</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>64.8±0.91</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>92.2±1.45</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>88.2±0.91</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>90.1±1.12</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Unet_FJ</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>FJ</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>94.5±0.42</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>90.6±2.57</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.6±0.81</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>83.4±2.37</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>73.4±3.61</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>95.7±1.60</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>83.0±2.34</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>67.3±2.01</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>88.8±1.38</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>80.9±1.59</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>84.7±1.36</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Unet_FJ_opt_only</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FJ</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>94.6±0.13</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>87.7±2.05</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>89.8±0.26</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>83.5±1.39</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>74.7±2.44</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>96.8±0.75</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>84.3±1.71</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>67.9±2.21</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>88.6±0.92</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>80.9±1.49</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>84.5±1.19</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Unet_GDGX</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GDGX</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>0.0±0.00</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Unet_GDGX_opt_only</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>GDGX</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>0.0±0.00</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>FCN_SD</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>97.8±0.17</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>77.9±6.74</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.3±0.37</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>88.8±1.11</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>98.8±0.30</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>98.6±0.36</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>98.7±0.18</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>43.0±0.62</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>94.7±0.83</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>93.9±0.72</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>94.3±0.47</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>FCN_SD_opt_only</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>SD</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>97.9±0.18</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>82.0±6.40</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>95.4±0.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>89.3±1.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>98.4±0.62</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>98.8±0.35</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>98.6±0.42</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>43.0±1.24</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>94.9±1.13</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>93.1±0.55</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>94.0±0.69</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>FCN_JS</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>JS</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>99.2±0.06</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>96.2±0.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>98.6±0.10</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>94.1±0.80</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>99.9±0.10</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>99.9±0.05</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>99.9±0.07</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>88.9±0.48</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>97.0±0.52</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>95.8±0.78</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>96.4±0.60</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>FCN_JS_opt_only</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>JS</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>99.2±0.04</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>96.9±0.53</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>98.7±0.07</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>93.6±1.07</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>99.8±0.15</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>99.9±0.07</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>99.8±0.11</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>89.6±0.51</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>97.5±0.25</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>95.7±0.40</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>96.6±0.28</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>FCN_SH</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>SH</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>99.3±0.10</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>97.0±0.98</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>97.8±0.32</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>91.1±1.38</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>96.8±3.16</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>98.6±0.77</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>97.7±1.95</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>91.0±2.47</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>97.1±1.08</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>96.0±1.11</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>96.5±1.05</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>FCN_SH_opt_only</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>SH</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>99.5±0.09</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>98.0±0.14</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>98.3±0.29</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>91.9±3.33</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>98.3±1.79</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>97.9±1.32</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>98.1±1.16</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>89.5±4.83</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>98.0±1.45</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>95.7±2.03</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>96.8±1.70</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>FCN_ZJ</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ZJ</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>97.3±0.14</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>96.8±0.33</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.0±0.26</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>89.3±1.55</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>66.7±1.18</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>94.2±0.83</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>89.3±0.79</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>91.7±0.76</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>FCN_ZJ_opt_only</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>ZJ</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>97.2±0.17</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>96.7±0.48</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.8±0.30</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>87.7±2.94</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>65.9±0.60</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>93.8±1.00</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>89.1±1.07</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>91.4±0.83</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>FCN_FJ</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>FJ</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>95.2±0.17</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>88.7±1.96</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>90.8±0.33</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>84.2±2.22</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>79.1±4.72</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>97.6±0.51</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>87.3±3.11</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>71.1±2.46</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>89.9±1.69</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>81.2±1.25</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>85.3±1.27</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>FCN_FJ_opt_only</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>FJ</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>95.7±0.20</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>90.2±2.53</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>91.8±0.39</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>85.2±1.37</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>77.5±2.12</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>97.1±0.69</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>86.2±1.45</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>72.3±0.25</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>91.1±0.82</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>83.4±0.61</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>87.1±0.66</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>FCN_GDGX</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>GDGX</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>75.0±0.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>FCN_GDGX_opt_only</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>GDGX</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>100.0±0.00</t>
+        </is>
+      </c>
       <c r="F37" t="inlineStr">
         <is>
           <t>100.0±0.00</t>
